--- a/Tables/experiment_log.xlsx
+++ b/Tables/experiment_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderbackis/Documents/MultiGridAnalysis/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21D604B-FDB1-6642-B560-5D78E8CA9479}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C573816-18C6-DF48-AF97-734039851048}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38000" windowHeight="26040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9640" windowWidth="28800" windowHeight="16640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experiment_log.csv" sheetId="1" r:id="rId1"/>
@@ -26299,8 +26299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BI13" sqref="BI13"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
